--- a/input/paleoEvents.xlsx
+++ b/input/paleoEvents.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pklimov/Library/CloudStorage/Box-Box/Devonian_soil_mites/3c-scripts.v2/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pklimov/Library/CloudStorage/Box-Box/Devonian_soil_mites/Devonian_soil_mites.v3.SciRep.R1/3-Annotate_BEAST_TimeTree_in_R.v4/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5C30DB-F799-1B43-8A89-93ABB69B10EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2ECB0D7-39E0-954C-B711-5191AE631956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="1140" windowWidth="54460" windowHeight="17560" activeTab="3" xr2:uid="{6C6625B1-C740-6F44-9864-29CFA4166F64}"/>
+    <workbookView xWindow="2660" yWindow="2080" windowWidth="54460" windowHeight="17560" activeTab="3" xr2:uid="{6C6625B1-C740-6F44-9864-29CFA4166F64}"/>
   </bookViews>
   <sheets>
     <sheet name="area" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -154,13 +154,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -175,8 +189,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,7 +754,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -775,8 +791,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>36</v>
+      <c r="A2" s="1">
+        <v>50</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -788,10 +804,10 @@
         <v>410.7</v>
       </c>
       <c r="E2">
-        <v>410.7</v>
+        <v>409.1</v>
       </c>
       <c r="F2">
-        <v>410.7</v>
+        <v>412.3</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
@@ -801,8 +817,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>7</v>
+      <c r="A3" s="1">
+        <v>21</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -811,13 +827,13 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>374.4</v>
+        <v>383.5</v>
       </c>
       <c r="E3">
-        <v>374.4</v>
+        <v>383</v>
       </c>
       <c r="F3">
-        <v>374.4</v>
+        <v>384</v>
       </c>
       <c r="G3" t="s">
         <v>25</v>
@@ -828,7 +844,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -837,13 +853,13 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>228.25</v>
+        <v>232.15</v>
       </c>
       <c r="E4">
-        <v>228.25</v>
+        <v>227.3</v>
       </c>
       <c r="F4">
-        <v>228.25</v>
+        <v>237</v>
       </c>
       <c r="G4" t="s">
         <v>26</v>
@@ -854,7 +870,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -863,13 +879,13 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>228.25</v>
+        <v>232.15</v>
       </c>
       <c r="E5">
-        <v>228.25</v>
+        <v>227.3</v>
       </c>
       <c r="F5">
-        <v>228.25</v>
+        <v>237</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
@@ -880,7 +896,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -889,13 +905,13 @@
         <v>22</v>
       </c>
       <c r="D6">
-        <v>228.25</v>
+        <v>232.15</v>
       </c>
       <c r="E6">
-        <v>228.25</v>
+        <v>227.3</v>
       </c>
       <c r="F6">
-        <v>228.25</v>
+        <v>237</v>
       </c>
       <c r="G6" t="s">
         <v>22</v>
@@ -906,7 +922,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -914,11 +930,11 @@
       <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D7">
-        <v>445.25</v>
+      <c r="D7" s="2">
+        <v>383.5</v>
       </c>
       <c r="E7">
-        <v>390</v>
+        <v>383.5</v>
       </c>
       <c r="F7">
         <v>500.5</v>
@@ -932,7 +948,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -940,7 +956,7 @@
       <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>462.35</v>
       </c>
       <c r="E8">
